--- a/テスト仕様書.xlsx
+++ b/テスト仕様書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GuestUser\OneDrive\デスクトップ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GuestUser\OneDrive\デスクトップ\tosho_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5131ACDF-4555-4F79-8A60-3A9E4B1C5B9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618E64E8-AF91-4DA2-8318-44DC45E13493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AEC8D65F-6C22-4478-B508-79CF597E1865}"/>
+    <workbookView xWindow="6480" yWindow="3180" windowWidth="12240" windowHeight="8880" xr2:uid="{AEC8D65F-6C22-4478-B508-79CF597E1865}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="295">
   <si>
     <t>OK</t>
     <phoneticPr fontId="4"/>
@@ -4196,6 +4196,15 @@
       <t>カシダシ</t>
     </rPh>
     <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>テストケース：158件</t>
+  </si>
+  <si>
+    <t>プログラムのステップ数：2.8ｋステップ</t>
+  </si>
+  <si>
+    <t>テストケース密度：56.4件/KSLOC</t>
   </si>
 </sst>
 </file>
@@ -4689,6 +4698,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -4698,26 +4710,14 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -4737,14 +4737,8 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4758,14 +4752,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -5087,7 +5096,7 @@
   <dimension ref="A1:K162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E164" sqref="E164"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -5108,7 +5117,16 @@
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>292</v>
+      </c>
       <c r="D2" s="2"/>
+      <c r="E2" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" ht="10.8">
       <c r="D3" s="2"/>
@@ -5235,7 +5253,7 @@
       <c r="C8" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="49" t="s">
+      <c r="D8" s="50" t="s">
         <v>32</v>
       </c>
       <c r="E8" s="5"/>
@@ -5262,7 +5280,7 @@
       <c r="A9" s="23"/>
       <c r="B9" s="23"/>
       <c r="C9" s="22"/>
-      <c r="D9" s="50"/>
+      <c r="D9" s="51"/>
       <c r="E9" s="5"/>
       <c r="F9" s="10" t="s">
         <v>26</v>
@@ -5285,7 +5303,7 @@
       <c r="A10" s="23"/>
       <c r="B10" s="23"/>
       <c r="C10" s="22"/>
-      <c r="D10" s="50"/>
+      <c r="D10" s="51"/>
       <c r="E10" s="12"/>
       <c r="F10" s="10" t="s">
         <v>27</v>
@@ -5293,7 +5311,7 @@
       <c r="G10" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="50"/>
+      <c r="H10" s="51"/>
       <c r="I10" s="7" t="s">
         <v>16</v>
       </c>
@@ -5316,7 +5334,7 @@
       <c r="G11" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="51"/>
+      <c r="H11" s="52"/>
       <c r="I11" s="7" t="s">
         <v>16</v>
       </c>
@@ -5416,7 +5434,7 @@
       <c r="C15" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="49" t="s">
+      <c r="D15" s="50" t="s">
         <v>32</v>
       </c>
       <c r="E15" s="25"/>
@@ -5443,7 +5461,7 @@
       <c r="A16" s="23"/>
       <c r="B16" s="23"/>
       <c r="C16" s="22"/>
-      <c r="D16" s="50"/>
+      <c r="D16" s="51"/>
       <c r="E16" s="14"/>
       <c r="F16" s="10" t="s">
         <v>44</v>
@@ -5466,7 +5484,7 @@
       <c r="A17" s="23"/>
       <c r="B17" s="23"/>
       <c r="C17" s="22"/>
-      <c r="D17" s="50"/>
+      <c r="D17" s="51"/>
       <c r="E17" s="14"/>
       <c r="F17" s="10" t="s">
         <v>46</v>
@@ -5522,7 +5540,7 @@
       <c r="C19" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="49" t="s">
+      <c r="D19" s="50" t="s">
         <v>51</v>
       </c>
       <c r="E19" s="5"/>
@@ -5547,8 +5565,8 @@
       <c r="A20" s="23"/>
       <c r="B20" s="23"/>
       <c r="C20" s="48"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="49" t="s">
+      <c r="D20" s="51"/>
+      <c r="E20" s="50" t="s">
         <v>55</v>
       </c>
       <c r="F20" s="6" t="s">
@@ -5572,8 +5590,8 @@
       <c r="A21" s="23"/>
       <c r="B21" s="23"/>
       <c r="C21" s="24"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="52"/>
       <c r="F21" s="6" t="s">
         <v>56</v>
       </c>
@@ -5595,8 +5613,8 @@
       <c r="A22" s="23"/>
       <c r="B22" s="23"/>
       <c r="C22" s="24"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="49" t="s">
+      <c r="D22" s="51"/>
+      <c r="E22" s="50" t="s">
         <v>61</v>
       </c>
       <c r="F22" s="17" t="s">
@@ -5620,8 +5638,8 @@
       <c r="A23" s="23"/>
       <c r="B23" s="23"/>
       <c r="C23" s="24"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="52"/>
       <c r="F23" s="6" t="s">
         <v>48</v>
       </c>
@@ -5643,7 +5661,7 @@
       <c r="A24" s="23"/>
       <c r="B24" s="23"/>
       <c r="C24" s="24"/>
-      <c r="D24" s="50"/>
+      <c r="D24" s="51"/>
       <c r="E24" s="12" t="s">
         <v>62</v>
       </c>
@@ -5668,7 +5686,7 @@
       <c r="A25" s="23"/>
       <c r="B25" s="23"/>
       <c r="C25" s="24"/>
-      <c r="D25" s="50"/>
+      <c r="D25" s="51"/>
       <c r="E25" s="12" t="s">
         <v>55</v>
       </c>
@@ -5693,7 +5711,7 @@
       <c r="A26" s="23"/>
       <c r="B26" s="23"/>
       <c r="C26" s="13"/>
-      <c r="D26" s="51"/>
+      <c r="D26" s="52"/>
       <c r="E26" s="25" t="s">
         <v>66</v>
       </c>
@@ -5719,7 +5737,7 @@
       <c r="B27" s="23"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
-      <c r="E27" s="72" t="s">
+      <c r="E27" s="53" t="s">
         <v>68</v>
       </c>
       <c r="F27" s="17" t="s">
@@ -5744,7 +5762,7 @@
       <c r="B28" s="23"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
-      <c r="E28" s="72"/>
+      <c r="E28" s="53"/>
       <c r="F28" s="6" t="s">
         <v>48</v>
       </c>
@@ -5793,10 +5811,10 @@
       <c r="C30" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="49" t="s">
+      <c r="D30" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="E30" s="49" t="s">
+      <c r="E30" s="50" t="s">
         <v>61</v>
       </c>
       <c r="F30" s="10" t="s">
@@ -5822,8 +5840,8 @@
       <c r="A31" s="23"/>
       <c r="B31" s="23"/>
       <c r="C31" s="22"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="52"/>
       <c r="F31" s="10" t="s">
         <v>74</v>
       </c>
@@ -5845,8 +5863,8 @@
       <c r="A32" s="23"/>
       <c r="B32" s="23"/>
       <c r="C32" s="22"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="49" t="s">
+      <c r="D32" s="51"/>
+      <c r="E32" s="50" t="s">
         <v>66</v>
       </c>
       <c r="F32" s="10" t="s">
@@ -5871,7 +5889,7 @@
       <c r="B33" s="29"/>
       <c r="C33" s="29"/>
       <c r="D33" s="29"/>
-      <c r="E33" s="51"/>
+      <c r="E33" s="52"/>
       <c r="F33" s="10" t="s">
         <v>74</v>
       </c>
@@ -5934,7 +5952,7 @@
       <c r="C35" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="D35" s="49" t="s">
+      <c r="D35" s="50" t="s">
         <v>51</v>
       </c>
       <c r="E35" s="5" t="s">
@@ -5961,8 +5979,8 @@
       <c r="A36" s="23"/>
       <c r="B36" s="23"/>
       <c r="C36" s="48"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="65" t="s">
+      <c r="D36" s="51"/>
+      <c r="E36" s="54" t="s">
         <v>89</v>
       </c>
       <c r="F36" s="6" t="s">
@@ -5986,8 +6004,8 @@
       <c r="A37" s="23"/>
       <c r="B37" s="23"/>
       <c r="C37" s="24"/>
-      <c r="D37" s="50"/>
-      <c r="E37" s="66"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="67"/>
       <c r="F37" s="6" t="s">
         <v>85</v>
       </c>
@@ -6009,7 +6027,7 @@
       <c r="A38" s="23"/>
       <c r="B38" s="23"/>
       <c r="C38" s="24"/>
-      <c r="D38" s="50"/>
+      <c r="D38" s="51"/>
       <c r="E38" s="4" t="s">
         <v>87</v>
       </c>
@@ -6036,10 +6054,10 @@
       <c r="C39" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="49" t="s">
+      <c r="D39" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="E39" s="65" t="s">
+      <c r="E39" s="54" t="s">
         <v>89</v>
       </c>
       <c r="F39" s="10" t="s">
@@ -6065,8 +6083,8 @@
       <c r="A40" s="23"/>
       <c r="B40" s="23"/>
       <c r="C40" s="22"/>
-      <c r="D40" s="50"/>
-      <c r="E40" s="67"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="55"/>
       <c r="F40" s="10" t="s">
         <v>91</v>
       </c>
@@ -6084,10 +6102,10 @@
       </c>
     </row>
     <row r="41" spans="1:11" ht="64.8">
-      <c r="A41" s="68"/>
-      <c r="B41" s="70"/>
-      <c r="C41" s="70"/>
-      <c r="D41" s="70"/>
+      <c r="A41" s="63"/>
+      <c r="B41" s="65"/>
+      <c r="C41" s="65"/>
+      <c r="D41" s="65"/>
       <c r="E41" s="32"/>
       <c r="F41" s="31" t="s">
         <v>95</v>
@@ -6106,10 +6124,10 @@
       </c>
     </row>
     <row r="42" spans="1:11" ht="75.599999999999994">
-      <c r="A42" s="68"/>
-      <c r="B42" s="70"/>
-      <c r="C42" s="70"/>
-      <c r="D42" s="70"/>
+      <c r="A42" s="63"/>
+      <c r="B42" s="65"/>
+      <c r="C42" s="65"/>
+      <c r="D42" s="65"/>
       <c r="E42" s="32"/>
       <c r="F42" s="31" t="s">
         <v>93</v>
@@ -6137,7 +6155,7 @@
       <c r="C43" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="D43" s="49" t="s">
+      <c r="D43" s="50" t="s">
         <v>51</v>
       </c>
       <c r="E43" s="5" t="s">
@@ -6164,8 +6182,8 @@
       <c r="A44" s="23"/>
       <c r="B44" s="23"/>
       <c r="C44" s="48"/>
-      <c r="D44" s="50"/>
-      <c r="E44" s="65" t="s">
+      <c r="D44" s="51"/>
+      <c r="E44" s="54" t="s">
         <v>98</v>
       </c>
       <c r="F44" s="6" t="s">
@@ -6189,8 +6207,8 @@
       <c r="A45" s="23"/>
       <c r="B45" s="23"/>
       <c r="C45" s="24"/>
-      <c r="D45" s="50"/>
-      <c r="E45" s="66"/>
+      <c r="D45" s="51"/>
+      <c r="E45" s="67"/>
       <c r="F45" s="6" t="s">
         <v>100</v>
       </c>
@@ -6214,10 +6232,10 @@
       <c r="C46" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D46" s="49" t="s">
+      <c r="D46" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="E46" s="65" t="s">
+      <c r="E46" s="54" t="s">
         <v>89</v>
       </c>
       <c r="F46" s="10" t="s">
@@ -6226,7 +6244,7 @@
       <c r="G46" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H46" s="49" t="s">
+      <c r="H46" s="50" t="s">
         <v>149</v>
       </c>
       <c r="I46" s="7" t="s">
@@ -6243,15 +6261,15 @@
       <c r="A47" s="23"/>
       <c r="B47" s="23"/>
       <c r="C47" s="22"/>
-      <c r="D47" s="50"/>
-      <c r="E47" s="67"/>
+      <c r="D47" s="51"/>
+      <c r="E47" s="55"/>
       <c r="F47" s="10" t="s">
         <v>103</v>
       </c>
       <c r="G47" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H47" s="50"/>
+      <c r="H47" s="51"/>
       <c r="I47" s="7" t="s">
         <v>16</v>
       </c>
@@ -6263,10 +6281,10 @@
       </c>
     </row>
     <row r="48" spans="1:11" ht="75.599999999999994" customHeight="1">
-      <c r="A48" s="68"/>
-      <c r="B48" s="70"/>
-      <c r="C48" s="70"/>
-      <c r="D48" s="70"/>
+      <c r="A48" s="63"/>
+      <c r="B48" s="65"/>
+      <c r="C48" s="65"/>
+      <c r="D48" s="65"/>
       <c r="E48" s="32"/>
       <c r="F48" s="10" t="s">
         <v>104</v>
@@ -6274,7 +6292,7 @@
       <c r="G48" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H48" s="50"/>
+      <c r="H48" s="51"/>
       <c r="I48" s="7" t="s">
         <v>16</v>
       </c>
@@ -6286,10 +6304,10 @@
       </c>
     </row>
     <row r="49" spans="1:11" ht="75.599999999999994" customHeight="1">
-      <c r="A49" s="69"/>
-      <c r="B49" s="71"/>
-      <c r="C49" s="71"/>
-      <c r="D49" s="71"/>
+      <c r="A49" s="64"/>
+      <c r="B49" s="66"/>
+      <c r="C49" s="66"/>
+      <c r="D49" s="66"/>
       <c r="E49" s="33"/>
       <c r="F49" s="34" t="s">
         <v>105</v>
@@ -6297,7 +6315,7 @@
       <c r="G49" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="H49" s="51"/>
+      <c r="H49" s="52"/>
       <c r="I49" s="7" t="s">
         <v>16</v>
       </c>
@@ -6318,7 +6336,7 @@
       <c r="C50" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="D50" s="49" t="s">
+      <c r="D50" s="50" t="s">
         <v>51</v>
       </c>
       <c r="E50" s="5" t="s">
@@ -6345,8 +6363,8 @@
       <c r="A51" s="23"/>
       <c r="B51" s="23"/>
       <c r="C51" s="48"/>
-      <c r="D51" s="50"/>
-      <c r="E51" s="65" t="s">
+      <c r="D51" s="51"/>
+      <c r="E51" s="54" t="s">
         <v>109</v>
       </c>
       <c r="F51" s="6" t="s">
@@ -6370,8 +6388,8 @@
       <c r="A52" s="19"/>
       <c r="B52" s="19"/>
       <c r="C52" s="37"/>
-      <c r="D52" s="51"/>
-      <c r="E52" s="66"/>
+      <c r="D52" s="52"/>
+      <c r="E52" s="67"/>
       <c r="F52" s="12" t="s">
         <v>112</v>
       </c>
@@ -6399,7 +6417,7 @@
       <c r="C53" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="D53" s="49" t="s">
+      <c r="D53" s="50" t="s">
         <v>51</v>
       </c>
       <c r="E53" s="5" t="s">
@@ -6426,8 +6444,8 @@
       <c r="A54" s="23"/>
       <c r="B54" s="23"/>
       <c r="C54" s="48"/>
-      <c r="D54" s="50"/>
-      <c r="E54" s="49" t="s">
+      <c r="D54" s="51"/>
+      <c r="E54" s="50" t="s">
         <v>117</v>
       </c>
       <c r="F54" s="6" t="s">
@@ -6451,8 +6469,8 @@
       <c r="A55" s="23"/>
       <c r="B55" s="23"/>
       <c r="C55" s="24"/>
-      <c r="D55" s="50"/>
-      <c r="E55" s="50"/>
+      <c r="D55" s="51"/>
+      <c r="E55" s="51"/>
       <c r="F55" s="6" t="s">
         <v>118</v>
       </c>
@@ -6475,7 +6493,7 @@
       <c r="B56" s="23"/>
       <c r="C56" s="24"/>
       <c r="D56" s="9"/>
-      <c r="E56" s="51"/>
+      <c r="E56" s="52"/>
       <c r="F56" s="17" t="s">
         <v>119</v>
       </c>
@@ -6498,7 +6516,7 @@
       <c r="B57" s="23"/>
       <c r="C57" s="24"/>
       <c r="D57" s="9"/>
-      <c r="E57" s="49" t="s">
+      <c r="E57" s="50" t="s">
         <v>122</v>
       </c>
       <c r="F57" s="6" t="s">
@@ -6523,7 +6541,7 @@
       <c r="B58" s="23"/>
       <c r="C58" s="24"/>
       <c r="D58" s="9"/>
-      <c r="E58" s="50"/>
+      <c r="E58" s="51"/>
       <c r="F58" s="10" t="s">
         <v>132</v>
       </c>
@@ -6545,7 +6563,7 @@
       <c r="B59" s="23"/>
       <c r="C59" s="24"/>
       <c r="D59" s="9"/>
-      <c r="E59" s="51"/>
+      <c r="E59" s="52"/>
       <c r="F59" s="17" t="s">
         <v>125</v>
       </c>
@@ -6594,10 +6612,10 @@
       <c r="C61" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D61" s="49" t="s">
+      <c r="D61" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="E61" s="65" t="s">
+      <c r="E61" s="54" t="s">
         <v>127</v>
       </c>
       <c r="F61" s="10" t="s">
@@ -6621,8 +6639,8 @@
       <c r="A62" s="23"/>
       <c r="B62" s="23"/>
       <c r="C62" s="22"/>
-      <c r="D62" s="50"/>
-      <c r="E62" s="67"/>
+      <c r="D62" s="51"/>
+      <c r="E62" s="55"/>
       <c r="F62" s="10" t="s">
         <v>130</v>
       </c>
@@ -6641,10 +6659,10 @@
       </c>
     </row>
     <row r="63" spans="1:11" ht="43.2">
-      <c r="A63" s="68"/>
-      <c r="B63" s="70"/>
-      <c r="C63" s="70"/>
-      <c r="D63" s="70"/>
+      <c r="A63" s="63"/>
+      <c r="B63" s="65"/>
+      <c r="C63" s="65"/>
+      <c r="D63" s="65"/>
       <c r="E63" s="32"/>
       <c r="F63" s="10" t="s">
         <v>135</v>
@@ -6664,10 +6682,10 @@
       </c>
     </row>
     <row r="64" spans="1:11" ht="54">
-      <c r="A64" s="68"/>
-      <c r="B64" s="70"/>
-      <c r="C64" s="70"/>
-      <c r="D64" s="70"/>
+      <c r="A64" s="63"/>
+      <c r="B64" s="65"/>
+      <c r="C64" s="65"/>
+      <c r="D64" s="65"/>
       <c r="E64" s="32"/>
       <c r="F64" s="10" t="s">
         <v>134</v>
@@ -6696,7 +6714,7 @@
       <c r="C65" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="D65" s="49" t="s">
+      <c r="D65" s="50" t="s">
         <v>51</v>
       </c>
       <c r="E65" s="5" t="s">
@@ -6723,8 +6741,8 @@
       <c r="A66" s="23"/>
       <c r="B66" s="23"/>
       <c r="C66" s="48"/>
-      <c r="D66" s="50"/>
-      <c r="E66" s="49" t="s">
+      <c r="D66" s="51"/>
+      <c r="E66" s="50" t="s">
         <v>141</v>
       </c>
       <c r="F66" s="6" t="s">
@@ -6748,8 +6766,8 @@
       <c r="A67" s="23"/>
       <c r="B67" s="23"/>
       <c r="C67" s="24"/>
-      <c r="D67" s="50"/>
-      <c r="E67" s="50"/>
+      <c r="D67" s="51"/>
+      <c r="E67" s="51"/>
       <c r="F67" s="6" t="s">
         <v>142</v>
       </c>
@@ -6772,7 +6790,7 @@
       <c r="B68" s="23"/>
       <c r="C68" s="24"/>
       <c r="D68" s="9"/>
-      <c r="E68" s="50"/>
+      <c r="E68" s="51"/>
       <c r="F68" s="6" t="s">
         <v>144</v>
       </c>
@@ -6795,7 +6813,7 @@
       <c r="B69" s="23"/>
       <c r="C69" s="24"/>
       <c r="D69" s="9"/>
-      <c r="E69" s="50"/>
+      <c r="E69" s="51"/>
       <c r="F69" s="6" t="s">
         <v>146</v>
       </c>
@@ -6841,7 +6859,7 @@
       <c r="B71" s="23"/>
       <c r="C71" s="24"/>
       <c r="D71" s="9"/>
-      <c r="E71" s="49" t="s">
+      <c r="E71" s="50" t="s">
         <v>151</v>
       </c>
       <c r="F71" s="6" t="s">
@@ -6866,7 +6884,7 @@
       <c r="B72" s="23"/>
       <c r="C72" s="24"/>
       <c r="D72" s="9"/>
-      <c r="E72" s="50"/>
+      <c r="E72" s="51"/>
       <c r="F72" s="17" t="s">
         <v>152</v>
       </c>
@@ -6889,7 +6907,7 @@
       <c r="B73" s="23"/>
       <c r="C73" s="24"/>
       <c r="D73" s="9"/>
-      <c r="E73" s="50"/>
+      <c r="E73" s="51"/>
       <c r="F73" s="17" t="s">
         <v>155</v>
       </c>
@@ -6912,7 +6930,7 @@
       <c r="B74" s="23"/>
       <c r="C74" s="24"/>
       <c r="D74" s="9"/>
-      <c r="E74" s="50"/>
+      <c r="E74" s="51"/>
       <c r="F74" s="17" t="s">
         <v>156</v>
       </c>
@@ -6935,7 +6953,7 @@
       <c r="B75" s="23"/>
       <c r="C75" s="24"/>
       <c r="D75" s="9"/>
-      <c r="E75" s="50"/>
+      <c r="E75" s="51"/>
       <c r="F75" s="17" t="s">
         <v>157</v>
       </c>
@@ -6958,7 +6976,7 @@
       <c r="B76" s="23"/>
       <c r="C76" s="24"/>
       <c r="D76" s="9"/>
-      <c r="E76" s="51"/>
+      <c r="E76" s="52"/>
       <c r="F76" s="17" t="s">
         <v>158</v>
       </c>
@@ -6982,10 +7000,10 @@
       <c r="C77" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D77" s="49" t="s">
+      <c r="D77" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="E77" s="65" t="s">
+      <c r="E77" s="54" t="s">
         <v>89</v>
       </c>
       <c r="F77" s="10" t="s">
@@ -6994,7 +7012,7 @@
       <c r="G77" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H77" s="49"/>
+      <c r="H77" s="50"/>
       <c r="I77" s="7" t="s">
         <v>16</v>
       </c>
@@ -7009,15 +7027,15 @@
       <c r="A78" s="23"/>
       <c r="B78" s="23"/>
       <c r="C78" s="22"/>
-      <c r="D78" s="50"/>
-      <c r="E78" s="67"/>
+      <c r="D78" s="51"/>
+      <c r="E78" s="55"/>
       <c r="F78" s="10" t="s">
         <v>103</v>
       </c>
       <c r="G78" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H78" s="50"/>
+      <c r="H78" s="51"/>
       <c r="I78" s="7" t="s">
         <v>16</v>
       </c>
@@ -7029,10 +7047,10 @@
       </c>
     </row>
     <row r="79" spans="1:11" ht="54">
-      <c r="A79" s="68"/>
-      <c r="B79" s="70"/>
-      <c r="C79" s="70"/>
-      <c r="D79" s="70"/>
+      <c r="A79" s="63"/>
+      <c r="B79" s="65"/>
+      <c r="C79" s="65"/>
+      <c r="D79" s="65"/>
       <c r="E79" s="32"/>
       <c r="F79" s="10" t="s">
         <v>104</v>
@@ -7040,7 +7058,7 @@
       <c r="G79" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H79" s="50"/>
+      <c r="H79" s="51"/>
       <c r="I79" s="7" t="s">
         <v>16</v>
       </c>
@@ -7052,10 +7070,10 @@
       </c>
     </row>
     <row r="80" spans="1:11" ht="54">
-      <c r="A80" s="69"/>
-      <c r="B80" s="71"/>
-      <c r="C80" s="71"/>
-      <c r="D80" s="71"/>
+      <c r="A80" s="64"/>
+      <c r="B80" s="66"/>
+      <c r="C80" s="66"/>
+      <c r="D80" s="66"/>
       <c r="E80" s="33"/>
       <c r="F80" s="34" t="s">
         <v>105</v>
@@ -7063,7 +7081,7 @@
       <c r="G80" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="H80" s="51"/>
+      <c r="H80" s="52"/>
       <c r="I80" s="7" t="s">
         <v>16</v>
       </c>
@@ -7084,7 +7102,7 @@
       <c r="C81" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="D81" s="49" t="s">
+      <c r="D81" s="50" t="s">
         <v>51</v>
       </c>
       <c r="E81" s="5" t="s">
@@ -7111,8 +7129,8 @@
       <c r="A82" s="23"/>
       <c r="B82" s="23"/>
       <c r="C82" s="48"/>
-      <c r="D82" s="50"/>
-      <c r="E82" s="49" t="s">
+      <c r="D82" s="51"/>
+      <c r="E82" s="50" t="s">
         <v>166</v>
       </c>
       <c r="F82" s="6" t="s">
@@ -7136,8 +7154,8 @@
       <c r="A83" s="23"/>
       <c r="B83" s="23"/>
       <c r="C83" s="24"/>
-      <c r="D83" s="50"/>
-      <c r="E83" s="50"/>
+      <c r="D83" s="51"/>
+      <c r="E83" s="51"/>
       <c r="F83" s="6" t="s">
         <v>167</v>
       </c>
@@ -7157,14 +7175,14 @@
     </row>
     <row r="84" spans="1:11" ht="21.6">
       <c r="A84" s="39"/>
-      <c r="B84" s="59" t="s">
+      <c r="B84" s="56" t="s">
         <v>171</v>
       </c>
-      <c r="C84" s="61" t="s">
+      <c r="C84" s="58" t="s">
         <v>172</v>
       </c>
-      <c r="D84" s="62"/>
-      <c r="E84" s="50"/>
+      <c r="D84" s="59"/>
+      <c r="E84" s="51"/>
       <c r="F84" s="6" t="s">
         <v>169</v>
       </c>
@@ -7184,10 +7202,10 @@
     </row>
     <row r="85" spans="1:11" ht="54">
       <c r="A85" s="39"/>
-      <c r="B85" s="60"/>
-      <c r="C85" s="63"/>
-      <c r="D85" s="64"/>
-      <c r="E85" s="51"/>
+      <c r="B85" s="57"/>
+      <c r="C85" s="60"/>
+      <c r="D85" s="61"/>
+      <c r="E85" s="52"/>
       <c r="F85" s="10" t="s">
         <v>43</v>
       </c>
@@ -7206,16 +7224,16 @@
       </c>
     </row>
     <row r="86" spans="1:11" ht="32.4">
-      <c r="A86" s="72" t="s">
+      <c r="A86" s="53" t="s">
         <v>173</v>
       </c>
-      <c r="B86" s="72" t="s">
+      <c r="B86" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C86" s="72" t="s">
+      <c r="C86" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="D86" s="72" t="s">
+      <c r="D86" s="53" t="s">
         <v>51</v>
       </c>
       <c r="E86" s="42" t="s">
@@ -7239,11 +7257,11 @@
       </c>
     </row>
     <row r="87" spans="1:11" ht="21.6">
-      <c r="A87" s="72"/>
-      <c r="B87" s="72"/>
-      <c r="C87" s="72"/>
-      <c r="D87" s="72"/>
-      <c r="E87" s="73" t="s">
+      <c r="A87" s="53"/>
+      <c r="B87" s="53"/>
+      <c r="C87" s="53"/>
+      <c r="D87" s="53"/>
+      <c r="E87" s="62" t="s">
         <v>176</v>
       </c>
       <c r="F87" s="6" t="s">
@@ -7264,11 +7282,11 @@
       </c>
     </row>
     <row r="88" spans="1:11" ht="32.4">
-      <c r="A88" s="72"/>
-      <c r="B88" s="72"/>
-      <c r="C88" s="72"/>
-      <c r="D88" s="72"/>
-      <c r="E88" s="73"/>
+      <c r="A88" s="53"/>
+      <c r="B88" s="53"/>
+      <c r="C88" s="53"/>
+      <c r="D88" s="53"/>
+      <c r="E88" s="62"/>
       <c r="F88" s="12" t="s">
         <v>177</v>
       </c>
@@ -7287,11 +7305,11 @@
       </c>
     </row>
     <row r="89" spans="1:11" ht="21.6">
-      <c r="A89" s="72"/>
-      <c r="B89" s="72"/>
-      <c r="C89" s="72"/>
-      <c r="D89" s="72"/>
-      <c r="E89" s="73"/>
+      <c r="A89" s="53"/>
+      <c r="B89" s="53"/>
+      <c r="C89" s="53"/>
+      <c r="D89" s="53"/>
+      <c r="E89" s="62"/>
       <c r="F89" s="12" t="s">
         <v>179</v>
       </c>
@@ -7310,11 +7328,11 @@
       </c>
     </row>
     <row r="90" spans="1:11" ht="32.4">
-      <c r="A90" s="72"/>
-      <c r="B90" s="72"/>
-      <c r="C90" s="72"/>
-      <c r="D90" s="72"/>
-      <c r="E90" s="73"/>
+      <c r="A90" s="53"/>
+      <c r="B90" s="53"/>
+      <c r="C90" s="53"/>
+      <c r="D90" s="53"/>
+      <c r="E90" s="62"/>
       <c r="F90" s="12" t="s">
         <v>181</v>
       </c>
@@ -7333,11 +7351,11 @@
       </c>
     </row>
     <row r="91" spans="1:11" ht="21.6">
-      <c r="A91" s="72"/>
-      <c r="B91" s="72"/>
-      <c r="C91" s="72"/>
-      <c r="D91" s="72"/>
-      <c r="E91" s="73"/>
+      <c r="A91" s="53"/>
+      <c r="B91" s="53"/>
+      <c r="C91" s="53"/>
+      <c r="D91" s="53"/>
+      <c r="E91" s="62"/>
       <c r="F91" s="12" t="s">
         <v>182</v>
       </c>
@@ -7356,10 +7374,10 @@
       </c>
     </row>
     <row r="92" spans="1:11" ht="21.6">
-      <c r="A92" s="72"/>
-      <c r="B92" s="72"/>
-      <c r="C92" s="72"/>
-      <c r="D92" s="72"/>
+      <c r="A92" s="53"/>
+      <c r="B92" s="53"/>
+      <c r="C92" s="53"/>
+      <c r="D92" s="53"/>
       <c r="E92" s="40" t="s">
         <v>184</v>
       </c>
@@ -7381,10 +7399,10 @@
       </c>
     </row>
     <row r="93" spans="1:11" ht="32.4">
-      <c r="A93" s="49"/>
-      <c r="B93" s="49"/>
-      <c r="C93" s="49"/>
-      <c r="D93" s="49"/>
+      <c r="A93" s="50"/>
+      <c r="B93" s="50"/>
+      <c r="C93" s="50"/>
+      <c r="D93" s="50"/>
       <c r="E93" s="41"/>
       <c r="F93" s="6" t="s">
         <v>204</v>
@@ -7461,7 +7479,7 @@
       <c r="C96" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="D96" s="49" t="s">
+      <c r="D96" s="50" t="s">
         <v>51</v>
       </c>
       <c r="E96" s="5" t="s">
@@ -7488,7 +7506,7 @@
       <c r="A97" s="23"/>
       <c r="B97" s="23"/>
       <c r="C97" s="48"/>
-      <c r="D97" s="50"/>
+      <c r="D97" s="51"/>
       <c r="E97" s="18" t="s">
         <v>214</v>
       </c>
@@ -7513,7 +7531,7 @@
       <c r="A98" s="23"/>
       <c r="B98" s="23"/>
       <c r="C98" s="24"/>
-      <c r="D98" s="50"/>
+      <c r="D98" s="51"/>
       <c r="E98" s="23"/>
       <c r="F98" s="6" t="s">
         <v>191</v>
@@ -7651,13 +7669,13 @@
     </row>
     <row r="104" spans="1:11" ht="75.599999999999994">
       <c r="A104" s="39"/>
-      <c r="B104" s="59" t="s">
+      <c r="B104" s="56" t="s">
         <v>171</v>
       </c>
-      <c r="C104" s="61" t="s">
+      <c r="C104" s="58" t="s">
         <v>172</v>
       </c>
-      <c r="D104" s="62"/>
+      <c r="D104" s="59"/>
       <c r="E104" s="23"/>
       <c r="F104" s="6" t="s">
         <v>198</v>
@@ -7678,9 +7696,9 @@
     </row>
     <row r="105" spans="1:11" ht="75.599999999999994">
       <c r="A105" s="39"/>
-      <c r="B105" s="60"/>
-      <c r="C105" s="63"/>
-      <c r="D105" s="64"/>
+      <c r="B105" s="57"/>
+      <c r="C105" s="60"/>
+      <c r="D105" s="61"/>
       <c r="E105" s="19"/>
       <c r="F105" s="10" t="s">
         <v>203</v>
@@ -7709,7 +7727,7 @@
       <c r="C106" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="D106" s="49" t="s">
+      <c r="D106" s="50" t="s">
         <v>51</v>
       </c>
       <c r="E106" s="5" t="s">
@@ -7736,7 +7754,7 @@
       <c r="A107" s="23"/>
       <c r="B107" s="23"/>
       <c r="C107" s="48"/>
-      <c r="D107" s="50"/>
+      <c r="D107" s="51"/>
       <c r="E107" s="18" t="s">
         <v>213</v>
       </c>
@@ -7761,7 +7779,7 @@
       <c r="A108" s="23"/>
       <c r="B108" s="23"/>
       <c r="C108" s="24"/>
-      <c r="D108" s="50"/>
+      <c r="D108" s="51"/>
       <c r="E108" s="23"/>
       <c r="F108" s="6" t="s">
         <v>215</v>
@@ -7784,7 +7802,7 @@
       <c r="A109" s="32"/>
       <c r="B109" s="23"/>
       <c r="C109" s="9"/>
-      <c r="D109" s="50"/>
+      <c r="D109" s="51"/>
       <c r="E109" s="23"/>
       <c r="F109" s="6" t="s">
         <v>217</v>
@@ -7807,7 +7825,7 @@
       <c r="A110" s="32"/>
       <c r="B110" s="23"/>
       <c r="C110" s="9"/>
-      <c r="D110" s="50"/>
+      <c r="D110" s="51"/>
       <c r="E110" s="23"/>
       <c r="F110" s="6" t="s">
         <v>219</v>
@@ -7830,7 +7848,7 @@
       <c r="A111" s="32"/>
       <c r="B111" s="23"/>
       <c r="C111" s="9"/>
-      <c r="D111" s="50"/>
+      <c r="D111" s="51"/>
       <c r="E111" s="23"/>
       <c r="F111" s="6" t="s">
         <v>220</v>
@@ -7853,7 +7871,7 @@
       <c r="A112" s="32"/>
       <c r="B112" s="23"/>
       <c r="C112" s="9"/>
-      <c r="D112" s="50"/>
+      <c r="D112" s="51"/>
       <c r="E112" s="20" t="s">
         <v>201</v>
       </c>
@@ -7878,7 +7896,7 @@
       <c r="A113" s="32"/>
       <c r="B113" s="23"/>
       <c r="C113" s="9"/>
-      <c r="D113" s="50"/>
+      <c r="D113" s="51"/>
       <c r="E113" s="18" t="s">
         <v>213</v>
       </c>
@@ -7903,7 +7921,7 @@
       <c r="A114" s="32"/>
       <c r="B114" s="23"/>
       <c r="C114" s="9"/>
-      <c r="D114" s="50"/>
+      <c r="D114" s="51"/>
       <c r="E114" s="18" t="s">
         <v>224</v>
       </c>
@@ -7928,7 +7946,7 @@
       <c r="A115" s="32"/>
       <c r="B115" s="23"/>
       <c r="C115" s="9"/>
-      <c r="D115" s="50"/>
+      <c r="D115" s="51"/>
       <c r="E115" s="19"/>
       <c r="F115" s="6" t="s">
         <v>48</v>
@@ -7951,7 +7969,7 @@
       <c r="A116" s="32"/>
       <c r="B116" s="23"/>
       <c r="C116" s="9"/>
-      <c r="D116" s="50"/>
+      <c r="D116" s="51"/>
       <c r="E116" s="18" t="s">
         <v>213</v>
       </c>
@@ -7976,7 +7994,7 @@
       <c r="A117" s="32"/>
       <c r="B117" s="23"/>
       <c r="C117" s="9"/>
-      <c r="D117" s="50"/>
+      <c r="D117" s="51"/>
       <c r="E117" s="18" t="s">
         <v>230</v>
       </c>
@@ -8001,7 +8019,7 @@
       <c r="A118" s="32"/>
       <c r="B118" s="23"/>
       <c r="C118" s="9"/>
-      <c r="D118" s="50"/>
+      <c r="D118" s="51"/>
       <c r="E118" s="19"/>
       <c r="F118" s="6" t="s">
         <v>48</v>
@@ -8022,13 +8040,13 @@
     </row>
     <row r="119" spans="1:11" ht="75.599999999999994">
       <c r="A119" s="39"/>
-      <c r="B119" s="59" t="s">
+      <c r="B119" s="56" t="s">
         <v>171</v>
       </c>
-      <c r="C119" s="61" t="s">
+      <c r="C119" s="58" t="s">
         <v>172</v>
       </c>
-      <c r="D119" s="62"/>
+      <c r="D119" s="59"/>
       <c r="E119" s="23"/>
       <c r="F119" s="6" t="s">
         <v>232</v>
@@ -8049,9 +8067,9 @@
     </row>
     <row r="120" spans="1:11" ht="75.599999999999994">
       <c r="A120" s="39"/>
-      <c r="B120" s="60"/>
-      <c r="C120" s="63"/>
-      <c r="D120" s="64"/>
+      <c r="B120" s="57"/>
+      <c r="C120" s="60"/>
+      <c r="D120" s="61"/>
       <c r="E120" s="19"/>
       <c r="F120" s="10" t="s">
         <v>233</v>
@@ -8080,7 +8098,7 @@
       <c r="C121" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="D121" s="49" t="s">
+      <c r="D121" s="50" t="s">
         <v>51</v>
       </c>
       <c r="E121" s="5" t="s">
@@ -8107,7 +8125,7 @@
       <c r="A122" s="23"/>
       <c r="B122" s="23"/>
       <c r="C122" s="48"/>
-      <c r="D122" s="50"/>
+      <c r="D122" s="51"/>
       <c r="E122" s="18" t="s">
         <v>236</v>
       </c>
@@ -8132,7 +8150,7 @@
       <c r="A123" s="23"/>
       <c r="B123" s="23"/>
       <c r="C123" s="24"/>
-      <c r="D123" s="50"/>
+      <c r="D123" s="51"/>
       <c r="E123" s="23"/>
       <c r="F123" s="6" t="s">
         <v>238</v>
@@ -8155,7 +8173,7 @@
       <c r="A124" s="32"/>
       <c r="B124" s="23"/>
       <c r="C124" s="9"/>
-      <c r="D124" s="50"/>
+      <c r="D124" s="51"/>
       <c r="E124" s="23"/>
       <c r="F124" s="6" t="s">
         <v>240</v>
@@ -8178,7 +8196,7 @@
       <c r="A125" s="32"/>
       <c r="B125" s="23"/>
       <c r="C125" s="9"/>
-      <c r="D125" s="50"/>
+      <c r="D125" s="51"/>
       <c r="E125" s="19"/>
       <c r="F125" s="6" t="s">
         <v>241</v>
@@ -8201,7 +8219,7 @@
       <c r="A126" s="32"/>
       <c r="B126" s="23"/>
       <c r="C126" s="9"/>
-      <c r="D126" s="50"/>
+      <c r="D126" s="51"/>
       <c r="E126" s="20" t="s">
         <v>201</v>
       </c>
@@ -8232,7 +8250,7 @@
       <c r="C127" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="D127" s="49" t="s">
+      <c r="D127" s="50" t="s">
         <v>51</v>
       </c>
       <c r="E127" s="5" t="s">
@@ -8259,7 +8277,7 @@
       <c r="A128" s="23"/>
       <c r="B128" s="23"/>
       <c r="C128" s="48"/>
-      <c r="D128" s="50"/>
+      <c r="D128" s="51"/>
       <c r="E128" s="18" t="s">
         <v>246</v>
       </c>
@@ -8284,7 +8302,7 @@
       <c r="A129" s="23"/>
       <c r="B129" s="23"/>
       <c r="C129" s="24"/>
-      <c r="D129" s="50"/>
+      <c r="D129" s="51"/>
       <c r="E129" s="23"/>
       <c r="F129" s="6" t="s">
         <v>215</v>
@@ -8307,7 +8325,7 @@
       <c r="A130" s="32"/>
       <c r="B130" s="23"/>
       <c r="C130" s="9"/>
-      <c r="D130" s="50"/>
+      <c r="D130" s="51"/>
       <c r="E130" s="23"/>
       <c r="F130" s="6" t="s">
         <v>217</v>
@@ -8330,7 +8348,7 @@
       <c r="A131" s="32"/>
       <c r="B131" s="23"/>
       <c r="C131" s="9"/>
-      <c r="D131" s="50"/>
+      <c r="D131" s="51"/>
       <c r="E131" s="23"/>
       <c r="F131" s="6" t="s">
         <v>219</v>
@@ -8353,7 +8371,7 @@
       <c r="A132" s="32"/>
       <c r="B132" s="23"/>
       <c r="C132" s="9"/>
-      <c r="D132" s="50"/>
+      <c r="D132" s="51"/>
       <c r="E132" s="23"/>
       <c r="F132" s="6" t="s">
         <v>247</v>
@@ -8376,7 +8394,7 @@
       <c r="A133" s="32"/>
       <c r="B133" s="23"/>
       <c r="C133" s="9"/>
-      <c r="D133" s="50"/>
+      <c r="D133" s="51"/>
       <c r="E133" s="18" t="s">
         <v>201</v>
       </c>
@@ -8401,7 +8419,7 @@
       <c r="A134" s="32"/>
       <c r="B134" s="23"/>
       <c r="C134" s="9"/>
-      <c r="D134" s="50"/>
+      <c r="D134" s="51"/>
       <c r="E134" s="23"/>
       <c r="F134" s="6" t="s">
         <v>248</v>
@@ -8424,7 +8442,7 @@
       <c r="A135" s="32"/>
       <c r="B135" s="23"/>
       <c r="C135" s="9"/>
-      <c r="D135" s="50"/>
+      <c r="D135" s="51"/>
       <c r="E135" s="23"/>
       <c r="F135" s="6" t="s">
         <v>250</v>
@@ -8447,7 +8465,7 @@
       <c r="A136" s="32"/>
       <c r="B136" s="23"/>
       <c r="C136" s="9"/>
-      <c r="D136" s="50"/>
+      <c r="D136" s="51"/>
       <c r="E136" s="18" t="s">
         <v>252</v>
       </c>
@@ -8472,7 +8490,7 @@
       <c r="A137" s="32"/>
       <c r="B137" s="23"/>
       <c r="C137" s="9"/>
-      <c r="D137" s="50"/>
+      <c r="D137" s="51"/>
       <c r="E137" s="23"/>
       <c r="F137" s="6" t="s">
         <v>254</v>
@@ -8495,7 +8513,7 @@
       <c r="A138" s="32"/>
       <c r="B138" s="23"/>
       <c r="C138" s="9"/>
-      <c r="D138" s="50"/>
+      <c r="D138" s="51"/>
       <c r="E138" s="18" t="s">
         <v>255</v>
       </c>
@@ -8518,13 +8536,13 @@
     </row>
     <row r="139" spans="1:11" ht="75.599999999999994">
       <c r="A139" s="39"/>
-      <c r="B139" s="57" t="s">
+      <c r="B139" s="68" t="s">
         <v>171</v>
       </c>
-      <c r="C139" s="53" t="s">
+      <c r="C139" s="71" t="s">
         <v>172</v>
       </c>
-      <c r="D139" s="54"/>
+      <c r="D139" s="72"/>
       <c r="E139" s="46" t="s">
         <v>252</v>
       </c>
@@ -8547,10 +8565,10 @@
     </row>
     <row r="140" spans="1:11" ht="54">
       <c r="A140" s="39"/>
-      <c r="B140" s="58"/>
-      <c r="C140" s="55"/>
-      <c r="D140" s="56"/>
-      <c r="E140" s="52"/>
+      <c r="B140" s="69"/>
+      <c r="C140" s="73"/>
+      <c r="D140" s="74"/>
+      <c r="E140" s="70"/>
       <c r="F140" s="6" t="s">
         <v>259</v>
       </c>
@@ -8570,10 +8588,10 @@
     </row>
     <row r="141" spans="1:11" ht="64.8">
       <c r="A141" s="39"/>
-      <c r="B141" s="58"/>
-      <c r="C141" s="55"/>
-      <c r="D141" s="56"/>
-      <c r="E141" s="52"/>
+      <c r="B141" s="69"/>
+      <c r="C141" s="73"/>
+      <c r="D141" s="74"/>
+      <c r="E141" s="70"/>
       <c r="F141" s="6" t="s">
         <v>261</v>
       </c>
@@ -8593,10 +8611,10 @@
     </row>
     <row r="142" spans="1:11" ht="54">
       <c r="A142" s="39"/>
-      <c r="B142" s="58"/>
-      <c r="C142" s="55"/>
-      <c r="D142" s="56"/>
-      <c r="E142" s="52"/>
+      <c r="B142" s="69"/>
+      <c r="C142" s="73"/>
+      <c r="D142" s="74"/>
+      <c r="E142" s="70"/>
       <c r="F142" s="6" t="s">
         <v>262</v>
       </c>
@@ -8624,7 +8642,7 @@
       <c r="C143" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="D143" s="49" t="s">
+      <c r="D143" s="50" t="s">
         <v>51</v>
       </c>
       <c r="E143" s="5" t="s">
@@ -8651,7 +8669,7 @@
       <c r="A144" s="23"/>
       <c r="B144" s="23"/>
       <c r="C144" s="48"/>
-      <c r="D144" s="50"/>
+      <c r="D144" s="51"/>
       <c r="E144" s="18" t="s">
         <v>268</v>
       </c>
@@ -8676,7 +8694,7 @@
       <c r="A145" s="23"/>
       <c r="B145" s="23"/>
       <c r="C145" s="24"/>
-      <c r="D145" s="50"/>
+      <c r="D145" s="51"/>
       <c r="E145" s="23"/>
       <c r="F145" s="6" t="s">
         <v>270</v>
@@ -8699,7 +8717,7 @@
       <c r="A146" s="32"/>
       <c r="B146" s="23"/>
       <c r="C146" s="9"/>
-      <c r="D146" s="50"/>
+      <c r="D146" s="51"/>
       <c r="E146" s="5" t="s">
         <v>77</v>
       </c>
@@ -8724,7 +8742,7 @@
       <c r="A147" s="32"/>
       <c r="B147" s="23"/>
       <c r="C147" s="9"/>
-      <c r="D147" s="50"/>
+      <c r="D147" s="51"/>
       <c r="E147" s="18" t="s">
         <v>268</v>
       </c>
@@ -8749,7 +8767,7 @@
       <c r="A148" s="32"/>
       <c r="B148" s="23"/>
       <c r="C148" s="9"/>
-      <c r="D148" s="50"/>
+      <c r="D148" s="51"/>
       <c r="E148" s="23"/>
       <c r="F148" s="6" t="s">
         <v>270</v>
@@ -8778,7 +8796,7 @@
       <c r="C149" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="D149" s="49" t="s">
+      <c r="D149" s="50" t="s">
         <v>51</v>
       </c>
       <c r="E149" s="5" t="s">
@@ -8805,7 +8823,7 @@
       <c r="A150" s="23"/>
       <c r="B150" s="23"/>
       <c r="C150" s="48"/>
-      <c r="D150" s="50"/>
+      <c r="D150" s="51"/>
       <c r="E150" s="18" t="s">
         <v>279</v>
       </c>
@@ -8830,7 +8848,7 @@
       <c r="A151" s="23"/>
       <c r="B151" s="23"/>
       <c r="C151" s="48"/>
-      <c r="D151" s="50"/>
+      <c r="D151" s="51"/>
       <c r="E151" s="23"/>
       <c r="F151" s="6" t="s">
         <v>215</v>
@@ -8853,7 +8871,7 @@
       <c r="A152" s="23"/>
       <c r="B152" s="23"/>
       <c r="C152" s="48"/>
-      <c r="D152" s="50"/>
+      <c r="D152" s="51"/>
       <c r="E152" s="23"/>
       <c r="F152" s="6" t="s">
         <v>217</v>
@@ -8876,7 +8894,7 @@
       <c r="A153" s="23"/>
       <c r="B153" s="23"/>
       <c r="C153" s="48"/>
-      <c r="D153" s="50"/>
+      <c r="D153" s="51"/>
       <c r="E153" s="23"/>
       <c r="F153" s="6" t="s">
         <v>219</v>
@@ -8899,7 +8917,7 @@
       <c r="A154" s="23"/>
       <c r="B154" s="23"/>
       <c r="C154" s="48"/>
-      <c r="D154" s="50"/>
+      <c r="D154" s="51"/>
       <c r="E154" s="23"/>
       <c r="F154" s="6" t="s">
         <v>282</v>
@@ -8922,7 +8940,7 @@
       <c r="A155" s="23"/>
       <c r="B155" s="23"/>
       <c r="C155" s="48"/>
-      <c r="D155" s="50"/>
+      <c r="D155" s="51"/>
       <c r="E155" s="18" t="s">
         <v>268</v>
       </c>
@@ -8947,7 +8965,7 @@
       <c r="A156" s="23"/>
       <c r="B156" s="23"/>
       <c r="C156" s="24"/>
-      <c r="D156" s="50"/>
+      <c r="D156" s="51"/>
       <c r="E156" s="23"/>
       <c r="F156" s="6" t="s">
         <v>270</v>
@@ -8970,7 +8988,7 @@
       <c r="A157" s="32"/>
       <c r="B157" s="23"/>
       <c r="C157" s="9"/>
-      <c r="D157" s="50"/>
+      <c r="D157" s="51"/>
       <c r="E157" s="5" t="s">
         <v>280</v>
       </c>
@@ -8995,7 +9013,7 @@
       <c r="A158" s="32"/>
       <c r="B158" s="23"/>
       <c r="C158" s="9"/>
-      <c r="D158" s="50"/>
+      <c r="D158" s="51"/>
       <c r="E158" s="18" t="s">
         <v>268</v>
       </c>
@@ -9020,7 +9038,7 @@
       <c r="A159" s="33"/>
       <c r="B159" s="19"/>
       <c r="C159" s="13"/>
-      <c r="D159" s="51"/>
+      <c r="D159" s="52"/>
       <c r="E159" s="19"/>
       <c r="F159" s="6" t="s">
         <v>270</v>
@@ -9047,7 +9065,7 @@
         <v>284</v>
       </c>
       <c r="C160" s="47"/>
-      <c r="D160" s="49"/>
+      <c r="D160" s="50"/>
       <c r="E160" s="5" t="s">
         <v>285</v>
       </c>
@@ -9072,7 +9090,7 @@
       <c r="A161" s="23"/>
       <c r="B161" s="23"/>
       <c r="C161" s="48"/>
-      <c r="D161" s="50"/>
+      <c r="D161" s="51"/>
       <c r="E161" s="18" t="s">
         <v>286</v>
       </c>
@@ -9096,8 +9114,8 @@
     <row r="162" spans="1:11" ht="54">
       <c r="A162" s="19"/>
       <c r="B162" s="19"/>
-      <c r="C162" s="74"/>
-      <c r="D162" s="51"/>
+      <c r="C162" s="49"/>
+      <c r="D162" s="52"/>
       <c r="E162" s="12" t="s">
         <v>290</v>
       </c>
@@ -9120,61 +9138,14 @@
     </row>
   </sheetData>
   <mergeCells count="87">
-    <mergeCell ref="C160:C162"/>
-    <mergeCell ref="D160:D162"/>
-    <mergeCell ref="A86:A93"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="D81:D83"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="C84:D85"/>
-    <mergeCell ref="E82:E85"/>
-    <mergeCell ref="E87:E91"/>
-    <mergeCell ref="D86:D93"/>
-    <mergeCell ref="C86:C93"/>
-    <mergeCell ref="B86:B93"/>
-    <mergeCell ref="H77:H80"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="E66:E69"/>
-    <mergeCell ref="E71:E76"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="D65:D67"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D55"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="D19:D26"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="E140:E142"/>
+    <mergeCell ref="C139:D142"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="D127:D138"/>
+    <mergeCell ref="C149:C155"/>
+    <mergeCell ref="D149:D159"/>
+    <mergeCell ref="C143:C144"/>
+    <mergeCell ref="D143:D148"/>
     <mergeCell ref="H10:H11"/>
     <mergeCell ref="H46:H49"/>
     <mergeCell ref="C50:C51"/>
@@ -9188,6 +9159,61 @@
     <mergeCell ref="E36:E37"/>
     <mergeCell ref="E39:E40"/>
     <mergeCell ref="E44:E45"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="D19:D26"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D55"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="D65:D67"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="E66:E69"/>
+    <mergeCell ref="E71:E76"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="E87:E91"/>
+    <mergeCell ref="D86:D93"/>
+    <mergeCell ref="C86:C93"/>
+    <mergeCell ref="B86:B93"/>
+    <mergeCell ref="H77:H80"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="C84:D85"/>
+    <mergeCell ref="E82:E85"/>
+    <mergeCell ref="C160:C162"/>
+    <mergeCell ref="D160:D162"/>
+    <mergeCell ref="A86:A93"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="D81:D83"/>
     <mergeCell ref="C106:C107"/>
     <mergeCell ref="B119:B120"/>
     <mergeCell ref="C119:D120"/>
@@ -9199,14 +9225,6 @@
     <mergeCell ref="B139:B142"/>
     <mergeCell ref="C121:C122"/>
     <mergeCell ref="D121:D126"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="D127:D138"/>
-    <mergeCell ref="C149:C155"/>
-    <mergeCell ref="D149:D159"/>
-    <mergeCell ref="C143:C144"/>
-    <mergeCell ref="D143:D148"/>
-    <mergeCell ref="E140:E142"/>
-    <mergeCell ref="C139:D142"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
